--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strongoier/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strongoier/Downloads/2017-2018/秋季学期/课程/计算机组成原理/课程作业/大实验/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="186">
   <si>
     <t>指令</t>
   </si>
@@ -741,6 +741,10 @@
   </si>
   <si>
     <t>7, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCJump</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,9 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1122,14 +1128,14 @@
     <col min="24" max="24" width="9" customWidth="1"/>
     <col min="25" max="25" width="7.5" customWidth="1"/>
     <col min="26" max="26" width="7.83203125" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.5" customWidth="1"/>
-    <col min="29" max="30" width="12.33203125" customWidth="1"/>
-    <col min="31" max="31" width="11.5" customWidth="1"/>
-    <col min="33" max="33" width="17.5" customWidth="1"/>
+    <col min="27" max="28" width="9.33203125" customWidth="1"/>
+    <col min="29" max="29" width="2.5" customWidth="1"/>
+    <col min="30" max="31" width="12.33203125" customWidth="1"/>
+    <col min="32" max="32" width="11.5" customWidth="1"/>
+    <col min="34" max="34" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1211,23 +1217,26 @@
       <c r="AA1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1283,20 +1292,23 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
         <v>113</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>113</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1356,23 +1368,26 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
         <v>113</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>122</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>123</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1428,20 +1443,23 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
         <v>167</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>176</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>124</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1501,17 +1519,20 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
         <v>125</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>126</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1569,17 +1590,20 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
         <v>128</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>126</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1631,14 +1655,17 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
         <v>131</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1691,17 +1718,20 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
         <v>132</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>133</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1754,17 +1784,20 @@
       <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
         <v>134</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>124</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1817,17 +1850,20 @@
       <c r="AA10">
         <v>0</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
         <v>168</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>124</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1885,17 +1921,20 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
         <v>125</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>126</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1951,14 +1990,17 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="s">
         <v>125</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2014,20 +2056,23 @@
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
         <v>169</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>135</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>136</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2085,20 +2130,23 @@
       <c r="AA14">
         <v>1</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="s">
         <v>125</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>126</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>137</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2154,20 +2202,23 @@
       <c r="AA15">
         <v>1</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="s">
         <v>170</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>125</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>133</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2223,17 +2274,20 @@
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
         <v>171</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>125</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2289,14 +2343,17 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="s">
         <v>128</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2352,17 +2409,20 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="s">
         <v>125</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>171</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2420,17 +2480,20 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="s">
         <v>126</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>178</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2482,8 +2545,11 @@
       <c r="AA20">
         <v>0</v>
       </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2541,17 +2607,20 @@
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="s">
         <v>128</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>139</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2611,20 +2680,23 @@
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="s">
         <v>126</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>125</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>138</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2684,20 +2756,23 @@
       <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="s">
         <v>126</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>125</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>138</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2757,17 +2832,20 @@
       <c r="AA24">
         <v>0</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="s">
         <v>140</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>122</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2825,20 +2903,23 @@
       <c r="AA25">
         <v>0</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="s">
         <v>173</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>181</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>183</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2894,20 +2975,23 @@
       <c r="AA26">
         <v>0</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="s">
         <v>172</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>182</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>184</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2965,17 +3049,20 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="s">
         <v>122</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>140</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3033,17 +3120,20 @@
       <c r="AA28">
         <v>0</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="s">
         <v>128</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>122</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3101,17 +3191,20 @@
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
         <v>174</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>173</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3169,17 +3262,20 @@
       <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="s">
         <v>125</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>126</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3235,37 +3331,101 @@
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="s">
         <v>175</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AF31" t="s">
         <v>140</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>133</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AH31" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C31"/>
   <mergeCells count="107">
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:S31"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:S7"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:S12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:S20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:S23"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="L26:S26"/>
@@ -3282,82 +3442,21 @@
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:S25"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:S20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:S17"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:S12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:S10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:S8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:S7"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:S4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:S31"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
